--- a/Project-Wise-QA-report -Web&iOS-Raiyan.xlsx
+++ b/Project-Wise-QA-report -Web&iOS-Raiyan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SQA_B11\Class 3_TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SQA_B11\Class 3_TestCase\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1F6E99-F927-4CAE-A285-D525D0FD786B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CB4987-F53C-4766-8558-272D0D0D55EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="57">
   <si>
     <t>Test Case Run</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>iOS</t>
+  </si>
+  <si>
+    <t>Web App</t>
   </si>
 </sst>
 </file>
@@ -475,16 +478,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,19 +575,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,13 +859,13 @@
                   <c:v>Total Bugs</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Backend</c:v>
+                  <c:v>Web App</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Android</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Backoffice</c:v>
+                  <c:v>iOS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -874,16 +877,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2467,8 +2467,8 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2521,7 +2521,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -2550,17 +2550,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="14">
-        <v>4</v>
-      </c>
-      <c r="I6" s="14">
         <v>2</v>
       </c>
+      <c r="I6" s="14"/>
       <c r="J6" s="14">
-        <f>F29</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -2568,7 +2565,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="13">
         <v>0</v>
@@ -2590,7 +2587,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="13">
         <v>0</v>
@@ -2679,10 +2676,10 @@
         <v>2</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H27" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" s="17">
         <v>0</v>
@@ -2698,7 +2695,7 @@
       </c>
       <c r="M27" s="18">
         <f t="shared" ref="M27:M29" si="1">SUM(H27:L27)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2716,49 +2713,45 @@
       <c r="G28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="17">
-        <v>1</v>
-      </c>
-      <c r="I28" s="17">
-        <v>1</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0</v>
-      </c>
-      <c r="K28" s="17">
-        <v>0</v>
-      </c>
-      <c r="L28" s="17">
-        <v>0</v>
-      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
       <c r="M28" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="B29" s="17">
+        <v>0</v>
+      </c>
+      <c r="C29" s="17">
+        <v>2</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
       <c r="E29" s="17"/>
       <c r="F29" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H29" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="17">
         <v>0</v>
       </c>
       <c r="J29" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="17">
         <v>0</v>
@@ -2768,7 +2761,7 @@
       </c>
       <c r="M29" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2781,11 +2774,11 @@
       </c>
       <c r="C30" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="17">
         <f t="shared" si="2"/>
@@ -2797,15 +2790,15 @@
       </c>
       <c r="H30" s="17">
         <f t="shared" ref="H30:M30" si="3">SUM(H27:H29)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="17">
         <f t="shared" si="3"/>
@@ -2817,7 +2810,7 @@
       </c>
       <c r="M30" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3111,7 +3104,7 @@
       <c r="J90" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L90" s="36" t="s">
+      <c r="L90" s="40" t="s">
         <v>2</v>
       </c>
       <c r="M90" s="32"/>
@@ -3208,7 +3201,7 @@
       <c r="N106" s="33"/>
     </row>
     <row r="107" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B107" s="27" t="s">
@@ -3229,7 +3222,7 @@
       <c r="G107" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H107" s="37" t="s">
+      <c r="H107" s="36" t="s">
         <v>47</v>
       </c>
       <c r="I107" s="11" t="s">
@@ -3255,7 +3248,7 @@
       </c>
     </row>
     <row r="108" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="38"/>
+      <c r="A108" s="37"/>
       <c r="B108" s="28" t="s">
         <v>8</v>
       </c>
@@ -3275,7 +3268,7 @@
         <f t="shared" ref="G108:G111" si="0">SUM(C108:F108)</f>
         <v>25</v>
       </c>
-      <c r="H108" s="38"/>
+      <c r="H108" s="37"/>
       <c r="I108" s="17" t="s">
         <v>8</v>
       </c>
@@ -3300,7 +3293,7 @@
       </c>
     </row>
     <row r="109" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="38"/>
+      <c r="A109" s="37"/>
       <c r="B109" s="28" t="s">
         <v>9</v>
       </c>
@@ -3320,7 +3313,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H109" s="38"/>
+      <c r="H109" s="37"/>
       <c r="I109" s="17" t="s">
         <v>9</v>
       </c>
@@ -3345,7 +3338,7 @@
       </c>
     </row>
     <row r="110" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="38"/>
+      <c r="A110" s="37"/>
       <c r="B110" s="28" t="s">
         <v>10</v>
       </c>
@@ -3365,7 +3358,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H110" s="38"/>
+      <c r="H110" s="37"/>
       <c r="I110" s="17" t="s">
         <v>10</v>
       </c>
@@ -3436,7 +3429,7 @@
       </c>
     </row>
     <row r="112" spans="1:15" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="40"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
       <c r="D112" s="32"/>
@@ -3451,7 +3444,7 @@
       <c r="N112" s="33"/>
     </row>
     <row r="113" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="27" t="s">
@@ -3472,7 +3465,7 @@
       <c r="G113" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H113" s="37" t="s">
+      <c r="H113" s="36" t="s">
         <v>48</v>
       </c>
       <c r="I113" s="11" t="s">
@@ -3498,7 +3491,7 @@
       </c>
     </row>
     <row r="114" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="38"/>
+      <c r="A114" s="37"/>
       <c r="B114" s="28" t="s">
         <v>8</v>
       </c>
@@ -3518,7 +3511,7 @@
         <f t="shared" ref="G114:G117" si="2">SUM(C114:F114)</f>
         <v>9</v>
       </c>
-      <c r="H114" s="38"/>
+      <c r="H114" s="37"/>
       <c r="I114" s="17" t="s">
         <v>8</v>
       </c>
@@ -3543,7 +3536,7 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="38"/>
+      <c r="A115" s="37"/>
       <c r="B115" s="28" t="s">
         <v>9</v>
       </c>
@@ -3563,7 +3556,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H115" s="38"/>
+      <c r="H115" s="37"/>
       <c r="I115" s="17" t="s">
         <v>9</v>
       </c>
@@ -3588,7 +3581,7 @@
       </c>
     </row>
     <row r="116" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="38"/>
+      <c r="A116" s="37"/>
       <c r="B116" s="28" t="s">
         <v>10</v>
       </c>
@@ -3608,7 +3601,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H116" s="38"/>
+      <c r="H116" s="37"/>
       <c r="I116" s="17" t="s">
         <v>10</v>
       </c>
@@ -3704,7 +3697,7 @@
       <c r="N121" s="33"/>
     </row>
     <row r="122" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="37" t="s">
+      <c r="A122" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B122" s="11" t="s">
@@ -3725,7 +3718,7 @@
       <c r="G122" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H122" s="37" t="s">
+      <c r="H122" s="36" t="s">
         <v>49</v>
       </c>
       <c r="I122" s="11" t="s">
@@ -3751,7 +3744,7 @@
       </c>
     </row>
     <row r="123" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="38"/>
+      <c r="A123" s="37"/>
       <c r="B123" s="17" t="s">
         <v>8</v>
       </c>
@@ -3771,7 +3764,7 @@
         <f t="shared" ref="G123:G125" si="4">SUM(C123:F123)</f>
         <v>9</v>
       </c>
-      <c r="H123" s="38"/>
+      <c r="H123" s="37"/>
       <c r="I123" s="17" t="s">
         <v>8</v>
       </c>
@@ -3795,7 +3788,7 @@
       </c>
     </row>
     <row r="124" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="38"/>
+      <c r="A124" s="37"/>
       <c r="B124" s="17" t="s">
         <v>31</v>
       </c>
@@ -3815,7 +3808,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H124" s="38"/>
+      <c r="H124" s="37"/>
       <c r="I124" s="17" t="s">
         <v>31</v>
       </c>
@@ -3839,7 +3832,7 @@
       </c>
     </row>
     <row r="125" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="38"/>
+      <c r="A125" s="37"/>
       <c r="B125" s="17" t="s">
         <v>28</v>
       </c>
@@ -3859,7 +3852,7 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="H125" s="38"/>
+      <c r="H125" s="37"/>
       <c r="I125" s="17" t="s">
         <v>28</v>
       </c>
@@ -3883,7 +3876,7 @@
       </c>
     </row>
     <row r="126" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="37" t="s">
+      <c r="A126" s="36" t="s">
         <v>50</v>
       </c>
       <c r="B126" s="11" t="s">
@@ -3904,7 +3897,7 @@
       <c r="G126" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H126" s="37" t="s">
+      <c r="H126" s="36" t="s">
         <v>50</v>
       </c>
       <c r="I126" s="11" t="s">
@@ -3930,7 +3923,7 @@
       </c>
     </row>
     <row r="127" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="38"/>
+      <c r="A127" s="37"/>
       <c r="B127" s="17" t="s">
         <v>8</v>
       </c>
@@ -3950,7 +3943,7 @@
         <f t="shared" ref="G127:G129" si="5">SUM(C127:F127)</f>
         <v>2</v>
       </c>
-      <c r="H127" s="38"/>
+      <c r="H127" s="37"/>
       <c r="I127" s="17" t="s">
         <v>8</v>
       </c>
@@ -3974,7 +3967,7 @@
       </c>
     </row>
     <row r="128" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="38"/>
+      <c r="A128" s="37"/>
       <c r="B128" s="17" t="s">
         <v>31</v>
       </c>
@@ -3994,7 +3987,7 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H128" s="38"/>
+      <c r="H128" s="37"/>
       <c r="I128" s="17" t="s">
         <v>31</v>
       </c>
@@ -4018,7 +4011,7 @@
       </c>
     </row>
     <row r="129" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="38"/>
+      <c r="A129" s="37"/>
       <c r="B129" s="17" t="s">
         <v>28</v>
       </c>
@@ -4038,7 +4031,7 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="H129" s="38"/>
+      <c r="H129" s="37"/>
       <c r="I129" s="17" t="s">
         <v>28</v>
       </c>
@@ -4077,7 +4070,7 @@
       <c r="N132" s="33"/>
     </row>
     <row r="133" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="37" t="s">
+      <c r="A133" s="36" t="s">
         <v>51</v>
       </c>
       <c r="B133" s="11" t="s">
@@ -4098,7 +4091,7 @@
       <c r="G133" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H133" s="37" t="s">
+      <c r="H133" s="36" t="s">
         <v>51</v>
       </c>
       <c r="I133" s="11" t="s">
@@ -4124,7 +4117,7 @@
       </c>
     </row>
     <row r="134" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="38"/>
+      <c r="A134" s="37"/>
       <c r="B134" s="17" t="s">
         <v>8</v>
       </c>
@@ -4144,7 +4137,7 @@
         <f t="shared" ref="G134:G136" si="6">SUM(C134:F134)</f>
         <v>4</v>
       </c>
-      <c r="H134" s="38"/>
+      <c r="H134" s="37"/>
       <c r="I134" s="17" t="s">
         <v>8</v>
       </c>
@@ -4168,7 +4161,7 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="38"/>
+      <c r="A135" s="37"/>
       <c r="B135" s="17" t="s">
         <v>31</v>
       </c>
@@ -4188,7 +4181,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H135" s="38"/>
+      <c r="H135" s="37"/>
       <c r="I135" s="17" t="s">
         <v>31</v>
       </c>
@@ -4212,7 +4205,7 @@
       </c>
     </row>
     <row r="136" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="38"/>
+      <c r="A136" s="37"/>
       <c r="B136" s="17" t="s">
         <v>28</v>
       </c>
@@ -4232,7 +4225,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="H136" s="38"/>
+      <c r="H136" s="37"/>
       <c r="I136" s="17" t="s">
         <v>28</v>
       </c>
@@ -4256,7 +4249,7 @@
       </c>
     </row>
     <row r="137" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="37" t="s">
+      <c r="A137" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B137" s="11" t="s">
@@ -4277,7 +4270,7 @@
       <c r="G137" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H137" s="37" t="s">
+      <c r="H137" s="36" t="s">
         <v>52</v>
       </c>
       <c r="I137" s="11" t="s">
@@ -4303,7 +4296,7 @@
       </c>
     </row>
     <row r="138" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="38"/>
+      <c r="A138" s="37"/>
       <c r="B138" s="17" t="s">
         <v>8</v>
       </c>
@@ -4323,7 +4316,7 @@
         <f t="shared" ref="G138:G140" si="7">SUM(C138:F138)</f>
         <v>2</v>
       </c>
-      <c r="H138" s="38"/>
+      <c r="H138" s="37"/>
       <c r="I138" s="17" t="s">
         <v>8</v>
       </c>
@@ -4347,7 +4340,7 @@
       </c>
     </row>
     <row r="139" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="38"/>
+      <c r="A139" s="37"/>
       <c r="B139" s="17" t="s">
         <v>31</v>
       </c>
@@ -4367,7 +4360,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="H139" s="38"/>
+      <c r="H139" s="37"/>
       <c r="I139" s="17" t="s">
         <v>31</v>
       </c>
@@ -4391,7 +4384,7 @@
       </c>
     </row>
     <row r="140" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="38"/>
+      <c r="A140" s="37"/>
       <c r="B140" s="17" t="s">
         <v>28</v>
       </c>
@@ -4411,7 +4404,7 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="H140" s="38"/>
+      <c r="H140" s="37"/>
       <c r="I140" s="17" t="s">
         <v>28</v>
       </c>
@@ -4436,12 +4429,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J132:N132"/>
-    <mergeCell ref="C132:F132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="H133:H136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="H137:H140"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="G81:L81"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="J106:N106"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="H107:H111"/>
     <mergeCell ref="A112:F112"/>
     <mergeCell ref="J112:N112"/>
     <mergeCell ref="A113:A117"/>
@@ -4454,16 +4451,12 @@
     <mergeCell ref="A122:A125"/>
     <mergeCell ref="H122:H125"/>
     <mergeCell ref="A126:A129"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="J106:N106"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="G81:L81"/>
-    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="J132:N132"/>
+    <mergeCell ref="C132:F132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="H133:H136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="H137:H140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Project-Wise-QA-report -Web&iOS-Raiyan.xlsx
+++ b/Project-Wise-QA-report -Web&iOS-Raiyan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SQA_B11\Class 3_TestCase\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CB4987-F53C-4766-8558-272D0D0D55EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65C37B5-14EE-4F25-A2A9-6FA9A45A05C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Test Case Run</t>
   </si>
   <si>
-    <t>Sprint 19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compo￼nent wise </t>
   </si>
   <si>
@@ -204,20 +201,23 @@
     <t>Sprint-4</t>
   </si>
   <si>
+    <t>Web app</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Web App</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
     <t>Project Name: Test cases for Mercari: your marketplace signup form.
-Sprint - 19
+Sprint - 1
 No. of Features: 
-No. of test Cases: 8
-Total Bugs: 6</t>
-  </si>
-  <si>
-    <t>Web app</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>Web App</t>
+No. of test Cases: 12
+Total Bugs: 5</t>
   </si>
 </sst>
 </file>
@@ -2467,15 +2467,15 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="33"/>
@@ -2496,10 +2496,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>1</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>2</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -2507,41 +2507,41 @@
     </row>
     <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9">
         <v>7</v>
       </c>
       <c r="C5" s="10">
-        <v>1</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="12">
         <v>0</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="15">
         <v>0</v>
@@ -2584,13 +2584,13 @@
     </row>
     <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="13">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -2601,13 +2601,13 @@
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="H25" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
@@ -2616,48 +2616,48 @@
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="C26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="D26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="E26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="F26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="G26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="17" t="s">
+      <c r="I26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="J26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="K26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="L26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="M26" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H27" s="17">
         <v>2</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -2742,16 +2742,16 @@
         <v>3</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H29" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" s="17">
         <v>0</v>
       </c>
       <c r="J29" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="17">
         <v>0</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="17">
         <f t="shared" ref="B30:E30" si="2">SUM(B27:B29)</f>
@@ -2786,11 +2786,11 @@
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" ref="H30:M30" si="3">SUM(H27:H29)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="3"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="J30" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="17">
         <f t="shared" si="3"/>
@@ -2815,11 +2815,11 @@
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C32" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="33"/>
       <c r="I32" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" s="32"/>
       <c r="K32" s="33"/>
@@ -2853,7 +2853,7 @@
   </sheetPr>
   <dimension ref="A12:P140"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
@@ -2861,7 +2861,7 @@
   <sheetData>
     <row r="12" spans="4:16" ht="18" x14ac:dyDescent="0.25">
       <c r="D12" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -2869,7 +2869,7 @@
       <c r="H12" s="32"/>
       <c r="I12" s="33"/>
       <c r="K12" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
@@ -2878,38 +2878,38 @@
     </row>
     <row r="14" spans="4:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="N14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="O14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="P14" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="4:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -2950,7 +2950,7 @@
     </row>
     <row r="40" spans="3:9" ht="18" x14ac:dyDescent="0.25">
       <c r="C40" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
@@ -2970,23 +2970,23 @@
     </row>
     <row r="43" spans="3:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C43" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="E43" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="F43" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="G43" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>36</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -3012,7 +3012,7 @@
     </row>
     <row r="81" spans="6:15" ht="18" x14ac:dyDescent="0.25">
       <c r="G81" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="32"/>
       <c r="I81" s="32"/>
@@ -3022,25 +3022,25 @@
     </row>
     <row r="83" spans="6:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G83" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J83" s="23" t="s">
+      <c r="K83" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="23" t="s">
+      <c r="L83" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="L83" s="23" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="84" spans="6:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G84" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H84" s="24"/>
       <c r="I84" s="24">
@@ -3058,7 +3058,7 @@
     </row>
     <row r="85" spans="6:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G85" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H85" s="24"/>
       <c r="I85" s="24">
@@ -3076,7 +3076,7 @@
     </row>
     <row r="88" spans="6:15" ht="18" x14ac:dyDescent="0.25">
       <c r="F88" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" s="32"/>
       <c r="H88" s="32"/>
@@ -3092,20 +3092,20 @@
     </row>
     <row r="90" spans="6:15" ht="18" x14ac:dyDescent="0.25">
       <c r="F90" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L90" s="40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M90" s="32"/>
       <c r="N90" s="32"/>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="91" spans="6:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F91" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G91" s="14">
         <v>19</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="92" spans="6:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F92" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G92" s="14">
         <v>22</v>
@@ -3145,21 +3145,21 @@
         <v>20</v>
       </c>
       <c r="L92" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M92" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N92" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N92" s="23" t="s">
-        <v>8</v>
-      </c>
       <c r="O92" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="6:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L93" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M93" s="24">
         <v>4</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="94" spans="6:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="L94" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M94" s="24">
         <v>3</v>
@@ -3187,13 +3187,13 @@
     </row>
     <row r="106" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C106" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" s="32"/>
       <c r="E106" s="32"/>
       <c r="F106" s="33"/>
       <c r="J106" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K106" s="32"/>
       <c r="L106" s="32"/>
@@ -3202,55 +3202,55 @@
     </row>
     <row r="107" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B107" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="D107" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="28" t="s">
+      <c r="E107" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E107" s="28" t="s">
+      <c r="F107" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F107" s="28" t="s">
+      <c r="G107" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G107" s="18" t="s">
+      <c r="H107" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H107" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J107" s="17" t="s">
+      <c r="K107" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K107" s="17" t="s">
+      <c r="L107" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L107" s="17" t="s">
+      <c r="M107" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M107" s="17" t="s">
+      <c r="N107" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N107" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="O107" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="37"/>
       <c r="B108" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" s="29">
         <v>2</v>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="H108" s="37"/>
       <c r="I108" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J108" s="30">
         <v>25</v>
@@ -3295,7 +3295,7 @@
     <row r="109" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="37"/>
       <c r="B109" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109" s="29">
         <v>0</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H109" s="37"/>
       <c r="I109" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J109" s="30">
         <v>3</v>
@@ -3340,7 +3340,7 @@
     <row r="110" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="37"/>
       <c r="B110" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C110" s="29">
         <v>0</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="H110" s="37"/>
       <c r="I110" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J110" s="30">
         <v>0</v>
@@ -3385,7 +3385,7 @@
     <row r="111" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="39"/>
       <c r="B111" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C111" s="28">
         <v>2</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J111" s="17">
         <f>SUM(J108:J110)</f>
@@ -3436,7 +3436,7 @@
       <c r="E112" s="32"/>
       <c r="F112" s="33"/>
       <c r="J112" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K112" s="32"/>
       <c r="L112" s="32"/>
@@ -3445,55 +3445,55 @@
     </row>
     <row r="113" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B113" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="D113" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D113" s="28" t="s">
+      <c r="E113" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="28" t="s">
+      <c r="F113" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F113" s="28" t="s">
+      <c r="G113" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G113" s="18" t="s">
+      <c r="H113" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H113" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J113" s="17" t="s">
+      <c r="K113" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K113" s="17" t="s">
+      <c r="L113" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L113" s="17" t="s">
+      <c r="M113" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M113" s="17" t="s">
+      <c r="N113" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N113" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="O113" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="37"/>
       <c r="B114" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" s="29">
         <v>0</v>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="H114" s="37"/>
       <c r="I114" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J114" s="30">
         <v>8</v>
@@ -3538,7 +3538,7 @@
     <row r="115" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="37"/>
       <c r="B115" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115" s="29">
         <v>2</v>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="H115" s="37"/>
       <c r="I115" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J115" s="30">
         <v>0</v>
@@ -3583,7 +3583,7 @@
     <row r="116" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="37"/>
       <c r="B116" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116" s="29">
         <v>0</v>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H116" s="37"/>
       <c r="I116" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J116" s="30">
         <v>0</v>
@@ -3628,7 +3628,7 @@
     <row r="117" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="39"/>
       <c r="B117" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C117" s="28">
         <v>2</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="H117" s="39"/>
       <c r="I117" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J117" s="17">
         <v>8</v>
@@ -3672,24 +3672,24 @@
     </row>
     <row r="119" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D119" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E119" s="33"/>
       <c r="K119" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L119" s="32"/>
       <c r="M119" s="33"/>
     </row>
     <row r="121" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C121" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D121" s="32"/>
       <c r="E121" s="32"/>
       <c r="F121" s="33"/>
       <c r="J121" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K121" s="32"/>
       <c r="L121" s="32"/>
@@ -3698,55 +3698,55 @@
     </row>
     <row r="122" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B122" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="D122" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="17" t="s">
+      <c r="E122" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="F122" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F122" s="17" t="s">
+      <c r="G122" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G122" s="18" t="s">
+      <c r="H122" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H122" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J122" s="17" t="s">
+      <c r="K122" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K122" s="17" t="s">
+      <c r="L122" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M122" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L122" s="17" t="s">
+      <c r="N122" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M122" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N122" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="O122" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="37"/>
       <c r="B123" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="H123" s="37"/>
       <c r="I123" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J123" s="17">
         <v>7</v>
@@ -3790,7 +3790,7 @@
     <row r="124" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="37"/>
       <c r="B124" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C124" s="17">
         <v>0</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="H124" s="37"/>
       <c r="I124" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J124" s="17">
         <v>0</v>
@@ -3834,7 +3834,7 @@
     <row r="125" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="37"/>
       <c r="B125" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C125" s="17">
         <v>0</v>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="H125" s="37"/>
       <c r="I125" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J125" s="17">
         <v>7</v>
@@ -3877,55 +3877,55 @@
     </row>
     <row r="126" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B126" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="D126" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="17" t="s">
+      <c r="E126" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E126" s="17" t="s">
+      <c r="F126" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F126" s="17" t="s">
+      <c r="G126" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G126" s="18" t="s">
+      <c r="H126" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H126" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J126" s="17" t="s">
+      <c r="K126" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K126" s="17" t="s">
+      <c r="L126" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M126" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L126" s="17" t="s">
+      <c r="N126" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M126" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N126" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="O126" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="37"/>
       <c r="B127" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" s="17">
         <v>0</v>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="H127" s="37"/>
       <c r="I127" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J127" s="17">
         <v>2</v>
@@ -3969,7 +3969,7 @@
     <row r="128" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="37"/>
       <c r="B128" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C128" s="17">
         <v>0</v>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="H128" s="37"/>
       <c r="I128" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J128" s="17">
         <v>10</v>
@@ -4013,7 +4013,7 @@
     <row r="129" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="37"/>
       <c r="B129" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C129" s="17">
         <v>0</v>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H129" s="37"/>
       <c r="I129" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J129" s="17">
         <v>12</v>
@@ -4056,13 +4056,13 @@
     </row>
     <row r="132" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C132" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D132" s="32"/>
       <c r="E132" s="32"/>
       <c r="F132" s="33"/>
       <c r="J132" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K132" s="32"/>
       <c r="L132" s="32"/>
@@ -4071,55 +4071,55 @@
     </row>
     <row r="133" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B133" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="D133" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="E133" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="F133" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F133" s="17" t="s">
+      <c r="G133" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G133" s="18" t="s">
+      <c r="H133" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J133" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H133" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I133" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J133" s="17" t="s">
+      <c r="K133" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K133" s="17" t="s">
+      <c r="L133" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M133" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L133" s="17" t="s">
+      <c r="N133" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M133" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N133" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="O133" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="37"/>
       <c r="B134" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" s="17">
         <v>0</v>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="H134" s="37"/>
       <c r="I134" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J134" s="17">
         <v>4</v>
@@ -4163,7 +4163,7 @@
     <row r="135" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="37"/>
       <c r="B135" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C135" s="17">
         <v>0</v>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="H135" s="37"/>
       <c r="I135" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J135" s="17">
         <v>0</v>
@@ -4207,7 +4207,7 @@
     <row r="136" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="37"/>
       <c r="B136" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C136" s="17">
         <v>0</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="H136" s="37"/>
       <c r="I136" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J136" s="17">
         <v>4</v>
@@ -4250,55 +4250,55 @@
     </row>
     <row r="137" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B137" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="D137" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="E137" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E137" s="17" t="s">
+      <c r="F137" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F137" s="17" t="s">
+      <c r="G137" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G137" s="18" t="s">
+      <c r="H137" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H137" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I137" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J137" s="17" t="s">
+      <c r="K137" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K137" s="17" t="s">
+      <c r="L137" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M137" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L137" s="17" t="s">
+      <c r="N137" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M137" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N137" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="O137" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="37"/>
       <c r="B138" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" s="17">
         <v>0</v>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="H138" s="37"/>
       <c r="I138" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J138" s="17">
         <v>2</v>
@@ -4342,7 +4342,7 @@
     <row r="139" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="37"/>
       <c r="B139" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C139" s="17">
         <v>0</v>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="H139" s="37"/>
       <c r="I139" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J139" s="17">
         <v>1</v>
@@ -4386,7 +4386,7 @@
     <row r="140" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="37"/>
       <c r="B140" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C140" s="17">
         <v>0</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="H140" s="37"/>
       <c r="I140" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J140" s="17">
         <v>3</v>
